--- a/CustomerInfo.xlsx
+++ b/CustomerInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amandeep\Projects\2018\201810\GitVersions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amandeep\Projects\2018\201810\GitVersions\Learning_Hub_AK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900AC131-60BC-4421-92D2-5DFD8BC35AFA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290CB952-4774-4649-9DC7-241522F51B04}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" xr2:uid="{29C84F70-7A26-4BAB-8F95-D50D13C76C04}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Kingman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy </t>
+  </si>
+  <si>
+    <t>Hayes</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CD5628-63CF-4395-A81C-561A94455C78}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,6 +465,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
